--- a/Documents/Documentation/Excel/Harmonogram.xlsx
+++ b/Documents/Documentation/Excel/Harmonogram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDriveMirror\Studia\Studia_sem_6\RiPO\ProjectRiPO\Documents\Documentation\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michal/Developer/Repozytoria/ProjectRiPO/Documents/Documentation/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E27750-265B-4EE0-962C-DEFB2938ACC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193F1A4D-B3EE-444D-BBBB-C9FEB3E73D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{25EBECB4-82FD-4206-911D-347F66B8FB88}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="28300" xr2:uid="{25EBECB4-82FD-4206-911D-347F66B8FB88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t xml:space="preserve">Stworzenie szkieletu aplikacji  (konfigurator z oprogramowaniem wykonawczym) z funkcjonalnością wykrywania obiektów </t>
   </si>
   <si>
-    <t>Implementacja dynkcjonalności rysowania lini pomocniczych</t>
-  </si>
-  <si>
     <t>Napisanie i przeprowadzenie testów aplikacji</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Zadania</t>
+  </si>
+  <si>
+    <t>Implementacja funkcjonalności rysowania lini pomocniczych</t>
   </si>
 </sst>
 </file>
@@ -154,9 +154,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -168,6 +165,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,11 +505,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2F9B44-7A90-41B7-A21D-AF7BEEA0F42B}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
@@ -517,228 +517,228 @@
     <col min="4" max="4" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45376</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C13" si="0">B3+6</f>
+        <v>45382</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" ref="B4:B13" si="1">C3 +1</f>
+        <v>45383</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>45389</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" si="1"/>
+        <v>45390</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>45396</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="1"/>
+        <v>45397</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>45403</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="1"/>
+        <v>45404</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>45410</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="1"/>
+        <v>45411</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>45417</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="1"/>
+        <v>45418</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>45424</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45376</v>
-      </c>
-      <c r="C3" s="5">
-        <f>B3+6</f>
-        <v>45382</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <f>C3 +1</f>
-        <v>45383</v>
-      </c>
-      <c r="C4" s="5">
-        <f>B4+6</f>
-        <v>45389</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <f>C4 +1</f>
-        <v>45390</v>
-      </c>
-      <c r="C5" s="5">
-        <f>B5+6</f>
-        <v>45396</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <f>C5 +1</f>
-        <v>45397</v>
-      </c>
-      <c r="C6" s="5">
-        <f>B6+6</f>
-        <v>45403</v>
-      </c>
-      <c r="D6" s="7" t="s">
+    <row r="10" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5">
-        <f>C6 +1</f>
-        <v>45404</v>
-      </c>
-      <c r="C7" s="5">
-        <f>B7+6</f>
-        <v>45410</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5">
-        <f>C7 +1</f>
-        <v>45411</v>
-      </c>
-      <c r="C8" s="5">
-        <f>B8+6</f>
-        <v>45417</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="B10" s="4">
+        <f t="shared" si="1"/>
+        <v>45425</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>45431</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5">
-        <f>C8 +1</f>
-        <v>45418</v>
-      </c>
-      <c r="C9" s="5">
-        <f>B9+6</f>
-        <v>45424</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B11" s="4">
+        <f t="shared" si="1"/>
+        <v>45432</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>45438</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <f>C9 +1</f>
-        <v>45425</v>
-      </c>
-      <c r="C10" s="5">
-        <f>B10+6</f>
-        <v>45431</v>
-      </c>
-      <c r="D10" s="7" t="s">
+    <row r="12" spans="1:4" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="1"/>
+        <v>45439</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>45445</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5">
-        <f>C10 +1</f>
-        <v>45432</v>
-      </c>
-      <c r="C11" s="5">
-        <f>B11+6</f>
-        <v>45438</v>
-      </c>
-      <c r="D11" s="6" t="s">
+    <row r="13" spans="1:4" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <f>C11 +1</f>
-        <v>45439</v>
-      </c>
-      <c r="C12" s="5">
-        <f>B12+6</f>
-        <v>45445</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="B13" s="4">
+        <f t="shared" si="1"/>
+        <v>45446</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>45452</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5">
-        <f>C12 +1</f>
-        <v>45446</v>
-      </c>
-      <c r="C13" s="5">
-        <f>B13+6</f>
-        <v>45452</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
   </sheetData>
